--- a/Memoria/graficos/Arquitectura/Decisiones de diseño/Comparativa compresores/Comparación formatos compresión.xlsx
+++ b/Memoria/graficos/Arquitectura/Decisiones de diseño/Comparativa compresores/Comparación formatos compresión.xlsx
@@ -134,12 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -158,24 +158,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Tiempos de compresión y descompresión</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -332,24 +315,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="71212416"/>
-        <c:axId val="71230592"/>
+        <c:axId val="63726720"/>
+        <c:axId val="63728256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71212416"/>
+        <c:axId val="63726720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71230592"/>
+        <c:crossAx val="63728256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71230592"/>
+        <c:axId val="63728256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +358,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71212416"/>
+        <c:crossAx val="63726720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -393,7 +376,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -404,24 +387,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Tamaño del fichero comprimido</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -503,24 +469,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="62473728"/>
-        <c:axId val="62492032"/>
+        <c:axId val="63765504"/>
+        <c:axId val="63918848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62473728"/>
+        <c:axId val="63765504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62492032"/>
+        <c:crossAx val="63918848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62492032"/>
+        <c:axId val="63918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +517,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62473728"/>
+        <c:crossAx val="63765504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -567,7 +533,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.39370000000000005" l="0" r="0" t="0.92370000000000008" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.39370000000000011" l="0" r="0" t="0.92370000000000019" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -578,24 +544,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Uso de CPU (promedio)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -752,24 +701,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="75724288"/>
-        <c:axId val="75726208"/>
+        <c:axId val="63948672"/>
+        <c:axId val="63950208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75724288"/>
+        <c:axId val="63948672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75726208"/>
+        <c:crossAx val="63950208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75726208"/>
+        <c:axId val="63950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +749,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75724288"/>
+        <c:crossAx val="63948672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,7 +767,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.39370000000000005" l="0" r="0" t="0.92370000000000008" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.39370000000000011" l="0" r="0" t="0.92370000000000019" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -829,24 +778,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Uso de memoria RAM (promedio)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1003,24 +935,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="62417920"/>
-        <c:axId val="62427904"/>
+        <c:axId val="64197760"/>
+        <c:axId val="64199296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62417920"/>
+        <c:axId val="64197760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62427904"/>
+        <c:crossAx val="64199296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62427904"/>
+        <c:axId val="64199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +978,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62417920"/>
+        <c:crossAx val="64197760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,7 +996,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.39370000000000005" l="0" r="0" t="0.92370000000000008" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.39370000000000011" l="0" r="0" t="0.92370000000000019" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1075,24 +1007,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Tasa de lectura de disco (promedio)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1249,24 +1164,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="85484672"/>
-        <c:axId val="85725184"/>
+        <c:axId val="69755264"/>
+        <c:axId val="69756800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85484672"/>
+        <c:axId val="69755264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85725184"/>
+        <c:crossAx val="69756800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85725184"/>
+        <c:axId val="69756800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1212,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85484672"/>
+        <c:crossAx val="69755264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1230,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.39370000000000005" l="0" r="0" t="0.92370000000000008" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.39370000000000011" l="0" r="0" t="0.92370000000000019" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1326,24 +1241,7 @@
   <c:lang val="es-ES"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Tasa de escritura a disco (promedio)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1500,24 +1398,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="85748736"/>
-        <c:axId val="98140544"/>
+        <c:axId val="69795200"/>
+        <c:axId val="69805184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85748736"/>
+        <c:axId val="69795200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98140544"/>
+        <c:crossAx val="69805184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98140544"/>
+        <c:axId val="69805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1446,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85748736"/>
+        <c:crossAx val="69795200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,7 +1464,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.39370000000000005" l="0" r="0" t="0.92370000000000008" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.39370000000000011" l="0" r="0" t="0.92370000000000019" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1584,8 +1482,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1614,8 +1512,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1674,8 +1572,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1699,13 +1597,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1727,15 +1625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>458561</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2065,9 +1963,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -2075,22 +1973,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
@@ -2134,10 +2032,10 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>952.577</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>145.36699999999999</v>
       </c>
       <c r="D5">
@@ -2172,10 +2070,10 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>210.452</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>69.594999999999999</v>
       </c>
       <c r="D6">
@@ -2210,10 +2108,10 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>223.78299999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>73.522999999999996</v>
       </c>
       <c r="D7">
@@ -2248,10 +2146,10 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>505.44799999999998</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>212.28</v>
       </c>
       <c r="D8">
@@ -2286,10 +2184,10 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>83.908000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>137.40299999999999</v>
       </c>
       <c r="D9">
@@ -2325,18 +2223,18 @@
       <c r="C10" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="E13" s="1" t="s">
@@ -2359,137 +2257,138 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <f>E5/1024</f>
         <v>193.140625</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f>F5/1024</f>
         <v>18.91015625</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f>I5/1024</f>
         <v>1.8406835937499999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f t="shared" ref="H14:J18" si="0">J5/1024</f>
         <v>1.7542480468749999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>5.5920703124999998</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <f t="shared" si="0"/>
         <v>5.5594824218749999</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <f t="shared" ref="E15:F18" si="1">E6/1024</f>
         <v>1.09375</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>3.46484375</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <f t="shared" ref="G15:G18" si="2">I6/1024</f>
         <v>1.8590429687500001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>1.8541699218750001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>5.4015917968749996</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
         <v>5.5887109375000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.6015625</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>0.6015625</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
         <v>2.5243457031249998</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>2.5006249999999999</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>7.1577929687499999</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <f t="shared" si="0"/>
         <v>7.1889160156249998</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>6.80078125</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>3.96875</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
         <v>2.608359375</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>1.8821972656249999</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>7.496865234375</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>5.4616796875000002</v>
       </c>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>0.8515625</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
         <v>0.828125</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
         <v>2.7097265625000002</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>2.6366894531249998</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>6.9979687500000001</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>7.0907128906250003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
@@ -2497,7 +2396,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <headerFooter>
@@ -2511,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
